--- a/MySQL/Tables MySQL draft.xlsx
+++ b/MySQL/Tables MySQL draft.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="23640" windowHeight="10035" tabRatio="849" firstSheet="5" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="23640" windowHeight="10035" tabRatio="849" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Group ID" sheetId="3" r:id="rId1"/>
@@ -14,13 +14,12 @@
     <sheet name="Executive Devices" sheetId="2" r:id="rId5"/>
     <sheet name="Executive Devices Type" sheetId="5" r:id="rId6"/>
     <sheet name="Junctiones Type" sheetId="7" r:id="rId7"/>
-    <sheet name="Arkusz23" sheetId="23" r:id="rId8"/>
-    <sheet name="Sensors Device" sheetId="13" r:id="rId9"/>
-    <sheet name="Sensors Devices Type" sheetId="14" r:id="rId10"/>
-    <sheet name="BED Dependences" sheetId="8" r:id="rId11"/>
-    <sheet name="SED Dependences" sheetId="16" r:id="rId12"/>
-    <sheet name="Dependence Type" sheetId="9" r:id="rId13"/>
-    <sheet name="Dependences" sheetId="22" r:id="rId14"/>
+    <sheet name="Sensors Device" sheetId="13" r:id="rId8"/>
+    <sheet name="Sensors Devices Type" sheetId="14" r:id="rId9"/>
+    <sheet name="BED Dependences" sheetId="8" r:id="rId10"/>
+    <sheet name="SED Dependences" sheetId="16" r:id="rId11"/>
+    <sheet name="Dependence Type" sheetId="9" r:id="rId12"/>
+    <sheet name="Dependences" sheetId="22" r:id="rId13"/>
   </sheets>
   <calcPr calcId="125725"/>
 </workbook>
@@ -792,45 +791,6 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <cols>
-    <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="26.375" customWidth="1"/>
-    <col min="3" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="17.625" customWidth="1"/>
-    <col min="6" max="6" width="14.875" customWidth="1"/>
-    <col min="7" max="7" width="16" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="B1" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="C1" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="14"/>
-      <c r="G1" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -870,7 +830,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -926,7 +886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B6"/>
   <sheetViews>
@@ -979,11 +939,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:J2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
@@ -1242,7 +1202,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:F1"/>
     </sheetView>
   </sheetViews>
@@ -1255,7 +1215,7 @@
     <col min="6" max="6" width="14.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="28.5">
+    <row r="1" spans="1:6">
       <c r="A1" s="3" t="s">
         <v>11</v>
       </c>
@@ -1385,18 +1345,6 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -1434,4 +1382,43 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
+  <cols>
+    <col min="1" max="1" width="11" customWidth="1"/>
+    <col min="2" max="2" width="26.375" customWidth="1"/>
+    <col min="3" max="4" width="15" customWidth="1"/>
+    <col min="5" max="5" width="17.625" customWidth="1"/>
+    <col min="6" max="6" width="14.875" customWidth="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="E1" s="14"/>
+      <c r="G1" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>